--- a/Backend/Model Metrics/importances_rfc_vaso.xlsx
+++ b/Backend/Model Metrics/importances_rfc_vaso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1399295236879782</v>
+        <v>0.1491249491283778</v>
       </c>
     </row>
     <row r="3">
@@ -462,217 +462,217 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09569246548726135</v>
+        <v>0.0841673494482206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ord_day0_gcs</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06353843671017351</v>
+        <v>0.08115907950006938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ord_day0_gcs</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06127483253502811</v>
+        <v>0.06848292355351977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>demo_ethnicity___8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04318674695514838</v>
+        <v>0.04891827761822882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>demo_ethnicity___8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04302133526060566</v>
+        <v>0.04673174918215717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>demo_ethnicity___2</t>
+          <t>bl_sao2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03677860137545588</v>
+        <v>0.03705808193311192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>demo_ethnicity___2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03575002238405785</v>
+        <v>0.0354166697883726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>bl_lab_ast</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03426063860699399</v>
+        <v>0.03372205296026062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bl_sao2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03197850806240973</v>
+        <v>0.03012874185734349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bl_lab_ast</t>
+          <t>org_day0_platlet</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03042033437583039</v>
+        <v>0.02877700121690686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>org_day0_platlet</t>
+          <t>bl_lab_inr</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02701671850844977</v>
+        <v>0.02660267123976017</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>bl_resp_rate</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02680715370390699</v>
+        <v>0.02472475861076671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bl_resp_rate</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02440040885620353</v>
+        <v>0.02464591553443264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bl_lab_inr</t>
+          <t>org_day0_bilirubin</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02315113899430525</v>
+        <v>0.02296282386347054</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>demo_ethnicity___6</t>
+          <t>bl_lab_wbc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02305374275904631</v>
+        <v>0.0208669386002578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>demo_age_years</t>
+          <t>bl_kg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02165294668403085</v>
+        <v>0.02079425108012155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bl_kg</t>
+          <t>demo_ethnicity___6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02155504986698923</v>
+        <v>0.02058454189865848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bl_lab_wbc</t>
+          <t>bl_lab_creatinine</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0213919655401246</v>
+        <v>0.02015764660307344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>org_day0_bilirubin</t>
+          <t>demo_age_years</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01803350384791342</v>
+        <v>0.02002214287272198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bl_temp</t>
+          <t>bl_lab_alt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01772607655252452</v>
+        <v>0.01821716182995778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bl_lab_creatinine</t>
+          <t>bl_temp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01726239461933446</v>
+        <v>0.01785529013747142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bl_lab_alt</t>
+          <t>bl_lab_troponin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719169102697536</v>
+        <v>0.01642353345176189</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01606891706248412</v>
+        <v>0.0163873361309962</v>
       </c>
     </row>
     <row r="26">
@@ -692,27 +692,27 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01470092363798254</v>
+        <v>0.01607783475662551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bl_lab_ddimer</t>
+          <t>co_smoking</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01447223604313766</v>
+        <v>0.01440494081565701</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bl_lab_troponin</t>
+          <t>demo_ethnicity___7</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01377317499560387</v>
+        <v>0.01358411040334863</v>
       </c>
     </row>
     <row r="29">
@@ -722,67 +722,57 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01261967300023422</v>
+        <v>0.01309715945031404</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>demo_ethnicity___7</t>
+          <t>demo_ethnicity___5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01247841748326632</v>
+        <v>0.009477893316570627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>demo_ethnicity___5</t>
+          <t>bl_oxy_status</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01200145460022138</v>
+        <v>0.00675122437196147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>co_smoking</t>
+          <t>demo_ethnicity___4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01186659819693194</v>
+        <v>0.004967025990691508</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>co_dementia___1</t>
+          <t>co_other___1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.006393349456706135</v>
+        <v>0.004788206443707443</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bl_oxy_status</t>
+          <t>co_dementia___1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005893860765505176</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>demo_ethnicity___4</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.004657158357179367</v>
+        <v>0.002919716411104313</v>
       </c>
     </row>
   </sheetData>
